--- a/F_dataset/ChEMBL/SYK/SYK_preprocessing/SYK_g1.xlsx
+++ b/F_dataset/ChEMBL/SYK/SYK_preprocessing/SYK_g1.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA34C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34133E0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413450&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34134C0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413530&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34135A0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413610&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413680&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34136F0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413760&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34137D0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34138B0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413920&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413990&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413A00&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413A70&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413AE0&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413C30&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413CA0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413D10&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413DF0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413ED0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413B50&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3413F40&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FA3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450040&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34500B0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE00B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450120&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450190&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450200&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450270&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34502E0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE02E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450350&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34503C0&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450430&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34504A0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE04A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450510&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450580&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34505F0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE05F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450660&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34506D0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450740&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34507B0&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE07B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450820&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450890&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450900&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450970&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F34509E0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450A50&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450AC0&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450B30&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016711FE0B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000193F3450BA0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
